--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはRange DataTypeに対して、薬剤量の上限下限に関する定義を行なったものである</t>
+    <t>このデータタイプはRange DataTypeに対して、時間の上限下限に関する定義を行なったものである</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -246,10 +246,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>時間範囲指定された上限下限量</t>
-  </si>
-  <si>
-    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
+    <t>範囲指定された時間の上限下限</t>
+  </si>
+  <si>
+    <t>時間の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。Low,Highの値は時間の単位当てはめる。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -447,7 +447,7 @@
 </t>
   </si>
   <si>
-    <t>UCUMを識別するURL。</t>
+    <t>UCUMを識別するURL</t>
   </si>
   <si>
     <t>UCUMを識別するURL。固定値。</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -254,10 +257,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
   </si>
   <si>
     <t>NR and also possibly SN (but see also quantity)</t>
@@ -778,55 +777,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -886,214 +885,214 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>81</v>
@@ -1108,23 +1107,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>85</v>
@@ -1138,68 +1137,68 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>89</v>
@@ -1215,19 +1214,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>92</v>
@@ -1243,38 +1242,38 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>96</v>
@@ -1283,7 +1282,7 @@
         <v>97</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>98</v>
@@ -1292,19 +1291,19 @@
         <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>89</v>
@@ -1316,20 +1315,20 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>102</v>
@@ -1348,62 +1347,62 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>107</v>
@@ -1421,23 +1420,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>85</v>
@@ -1451,68 +1450,68 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>89</v>
@@ -1528,19 +1527,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>92</v>
@@ -1556,38 +1555,38 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>96</v>
@@ -1596,7 +1595,7 @@
         <v>97</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>98</v>
@@ -1605,19 +1604,19 @@
         <v>99</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>89</v>
@@ -1629,20 +1628,20 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>102</v>
@@ -1663,62 +1662,62 @@
         <v>115</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>116</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>107</v>
@@ -1736,17 +1735,17 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>102</v>
@@ -1768,28 +1767,28 @@
         <v>123</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>124</v>
       </c>
       <c r="Q9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
         <v>125</v>
@@ -1801,31 +1800,31 @@
         <v>127</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>107</v>
@@ -1843,20 +1842,20 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>102</v>
@@ -1875,62 +1874,62 @@
         <v>134</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>107</v>
@@ -1948,20 +1947,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>102</v>
@@ -1980,26 +1979,26 @@
         <v>142</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
         <v>143</v>
@@ -2009,25 +2008,25 @@
         <v>144</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>84</v>
@@ -2051,20 +2050,20 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>102</v>
@@ -2085,26 +2084,26 @@
         <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
         <v>143</v>
@@ -2114,31 +2113,31 @@
         <v>144</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>107</v>
@@ -2156,20 +2155,20 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>102</v>
@@ -2188,62 +2187,62 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>107</v>
@@ -2261,23 +2260,23 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>85</v>
@@ -2291,68 +2290,68 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>89</v>
@@ -2368,19 +2367,19 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>92</v>
@@ -2396,38 +2395,38 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>96</v>
@@ -2436,7 +2435,7 @@
         <v>97</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>98</v>
@@ -2445,19 +2444,19 @@
         <v>99</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>89</v>
@@ -2469,20 +2468,20 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>102</v>
@@ -2503,62 +2502,62 @@
         <v>115</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>116</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>107</v>
@@ -2576,17 +2575,17 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>102</v>
@@ -2608,28 +2607,28 @@
         <v>123</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>124</v>
       </c>
       <c r="Q17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>125</v>
@@ -2641,31 +2640,31 @@
         <v>127</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>107</v>
@@ -2683,20 +2682,20 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>102</v>
@@ -2715,62 +2714,62 @@
         <v>134</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>107</v>
@@ -2788,20 +2787,20 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>102</v>
@@ -2820,26 +2819,26 @@
         <v>142</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
         <v>143</v>
@@ -2849,25 +2848,25 @@
         <v>144</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>145</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>84</v>
@@ -2891,20 +2890,20 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>102</v>
@@ -2925,26 +2924,26 @@
         <v>152</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
         <v>143</v>
@@ -2954,31 +2953,31 @@
         <v>144</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>153</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>107</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrange-unitoftime.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationrange-unitoftime.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
